--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H2">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I2">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J2">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>1021.760636566974</v>
+        <v>1053.643343277414</v>
       </c>
       <c r="R2">
-        <v>9195.845729102761</v>
+        <v>9482.790089496724</v>
       </c>
       <c r="S2">
-        <v>0.08783165599917632</v>
+        <v>0.07298113044934113</v>
       </c>
       <c r="T2">
-        <v>0.08783165599917632</v>
+        <v>0.07298113044934113</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H3">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I3">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J3">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>135.0990210416133</v>
+        <v>160.6907377050267</v>
       </c>
       <c r="R3">
-        <v>1215.89118937452</v>
+        <v>1446.21663934524</v>
       </c>
       <c r="S3">
-        <v>0.01161325883704141</v>
+        <v>0.01113032390445588</v>
       </c>
       <c r="T3">
-        <v>0.01161325883704141</v>
+        <v>0.01113032390445588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H4">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I4">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J4">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>311.995389632212</v>
+        <v>759.8291865118764</v>
       </c>
       <c r="R4">
-        <v>2807.958506689908</v>
+        <v>6838.462678606887</v>
       </c>
       <c r="S4">
-        <v>0.02681946314508392</v>
+        <v>0.05262994668342884</v>
       </c>
       <c r="T4">
-        <v>0.02681946314508392</v>
+        <v>0.05262994668342885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H5">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I5">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J5">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>161.7973372806782</v>
+        <v>192.4242362878796</v>
       </c>
       <c r="R5">
-        <v>1456.176035526104</v>
+        <v>1731.818126590916</v>
       </c>
       <c r="S5">
-        <v>0.01390827514883203</v>
+        <v>0.01332836047391333</v>
       </c>
       <c r="T5">
-        <v>0.01390827514883203</v>
+        <v>0.01332836047391333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I6">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J6">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>2262.004627295444</v>
+        <v>1961.098045231102</v>
       </c>
       <c r="R6">
-        <v>20358.04164565899</v>
+        <v>17649.88240707992</v>
       </c>
       <c r="S6">
-        <v>0.1944443788328851</v>
+        <v>0.1358364319161043</v>
       </c>
       <c r="T6">
-        <v>0.1944443788328851</v>
+        <v>0.1358364319161044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I7">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J7">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
         <v>299.0863024103033</v>
@@ -883,10 +883,10 @@
         <v>2691.77672169273</v>
       </c>
       <c r="S7">
-        <v>0.02570978396234733</v>
+        <v>0.02071636155733813</v>
       </c>
       <c r="T7">
-        <v>0.02570978396234733</v>
+        <v>0.02071636155733813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I8">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J8">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>690.7048380862628</v>
+        <v>1414.235226640303</v>
       </c>
       <c r="R8">
-        <v>6216.343542776366</v>
+        <v>12728.11703976272</v>
       </c>
       <c r="S8">
-        <v>0.05937373937167029</v>
+        <v>0.09795770667562091</v>
       </c>
       <c r="T8">
-        <v>0.0593737393716703</v>
+        <v>0.09795770667562093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I9">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J9">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>358.1918430941495</v>
+        <v>358.150408339734</v>
       </c>
       <c r="R9">
-        <v>3223.726587847346</v>
+        <v>3223.353675057607</v>
       </c>
       <c r="S9">
-        <v>0.03079056054660815</v>
+        <v>0.02480746624395936</v>
       </c>
       <c r="T9">
-        <v>0.03079056054660815</v>
+        <v>0.02480746624395936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H10">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I10">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J10">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>596.9608001014234</v>
+        <v>743.1797406122295</v>
       </c>
       <c r="R10">
-        <v>5372.64720091281</v>
+        <v>6688.617665510066</v>
       </c>
       <c r="S10">
-        <v>0.05131539987258504</v>
+        <v>0.05147671452867355</v>
       </c>
       <c r="T10">
-        <v>0.05131539987258504</v>
+        <v>0.05147671452867356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H11">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I11">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J11">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>78.93122597176333</v>
+        <v>113.3420540530733</v>
       </c>
       <c r="R11">
-        <v>710.38103374587</v>
+        <v>1020.07848647766</v>
       </c>
       <c r="S11">
-        <v>0.006785014062039327</v>
+        <v>0.007850693771303716</v>
       </c>
       <c r="T11">
-        <v>0.006785014062039327</v>
+        <v>0.007850693771303719</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H12">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I12">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J12">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>182.282435589397</v>
+        <v>535.9400420876768</v>
       </c>
       <c r="R12">
-        <v>1640.541920304573</v>
+        <v>4823.460378789092</v>
       </c>
       <c r="S12">
-        <v>0.0156691964873228</v>
+        <v>0.03712215369098376</v>
       </c>
       <c r="T12">
-        <v>0.0156691964873228</v>
+        <v>0.03712215369098377</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H13">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I13">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J13">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>94.52964271737488</v>
+        <v>135.7250486365771</v>
       </c>
       <c r="R13">
-        <v>850.766784456374</v>
+        <v>1221.525437729194</v>
       </c>
       <c r="S13">
-        <v>0.008125870936635261</v>
+        <v>0.009401063028574762</v>
       </c>
       <c r="T13">
-        <v>0.008125870936635263</v>
+        <v>0.009401063028574765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H14">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I14">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J14">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N14">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q14">
-        <v>3408.574764339594</v>
+        <v>3263.102511269362</v>
       </c>
       <c r="R14">
-        <v>30677.17287905634</v>
+        <v>29367.92260142426</v>
       </c>
       <c r="S14">
-        <v>0.2930047952863422</v>
+        <v>0.2260204191142702</v>
       </c>
       <c r="T14">
-        <v>0.2930047952863421</v>
+        <v>0.2260204191142703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H15">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I15">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J15">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q15">
-        <v>450.6878591023533</v>
+        <v>497.6544986389599</v>
       </c>
       <c r="R15">
-        <v>4056.19073192118</v>
+        <v>4478.890487750639</v>
       </c>
       <c r="S15">
-        <v>0.03874161871872864</v>
+        <v>0.03447028647369231</v>
       </c>
       <c r="T15">
-        <v>0.03874161871872862</v>
+        <v>0.03447028647369232</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H16">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I16">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J16">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N16">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q16">
-        <v>1040.810903876458</v>
+        <v>2353.168690773818</v>
       </c>
       <c r="R16">
-        <v>9367.298134888122</v>
+        <v>21178.51821696437</v>
       </c>
       <c r="S16">
-        <v>0.08946923770387073</v>
+        <v>0.1629934002681329</v>
       </c>
       <c r="T16">
-        <v>0.08946923770387073</v>
+        <v>0.162993400268133</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H17">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I17">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J17">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N17">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O17">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P17">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q17">
-        <v>539.7529529472263</v>
+        <v>595.9322124191972</v>
       </c>
       <c r="R17">
-        <v>4857.776576525036</v>
+        <v>5363.389911772775</v>
       </c>
       <c r="S17">
-        <v>0.04639775108883142</v>
+        <v>0.04127754122020674</v>
       </c>
       <c r="T17">
-        <v>0.04639775108883142</v>
+        <v>0.04127754122020676</v>
       </c>
     </row>
   </sheetData>
